--- a/leanCrm/datanew/physicalAreas/PhysicalSpaces/relations/PhysicalSpacesR5PhysicalSpaces.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalSpaces/relations/PhysicalSpacesR5PhysicalSpaces.xlsx
@@ -57,25 +57,25 @@
     <t>name</t>
   </si>
   <si>
-    <t>Fachada CL26</t>
-  </si>
-  <si>
-    <t>Ingreso Escalera 1 Piso CL26</t>
-  </si>
-  <si>
-    <t>Escalera 1 Piso CL26</t>
-  </si>
-  <si>
-    <t>Pasillo 2 piso CL26</t>
-  </si>
-  <si>
-    <t>placa 2 piso CL26</t>
-  </si>
-  <si>
-    <t>placa 3 piso CL26</t>
-  </si>
-  <si>
-    <t>Area Común CL26</t>
+    <t>Area Común CR23</t>
+  </si>
+  <si>
+    <t>Fachada CR23</t>
+  </si>
+  <si>
+    <t>Ingreso Escalera 1 Piso CR23</t>
+  </si>
+  <si>
+    <t>Escalera 1 Piso CR23</t>
+  </si>
+  <si>
+    <t>Pasillo 2 piso CR23</t>
+  </si>
+  <si>
+    <t>Placa 2 piso CR23</t>
+  </si>
+  <si>
+    <t>Placa 3 piso CR23</t>
   </si>
 </sst>
 </file>
@@ -885,7 +885,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -940,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -957,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -966,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -980,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -989,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1012,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -1026,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1035,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -1049,16 +1049,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
